--- a/Pumps Excel Data/Sulzer1.xlsx
+++ b/Pumps Excel Data/Sulzer1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\GitHub\DWSIM_Pump_Curves\Pumps Excel Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E7FBCCB-FC97-491D-98D3-60D6AE850DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530D56A2-43D7-462D-8B7F-4849C16B195E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="12360" xr2:uid="{747A5DD0-51CA-448B-B73F-F061414B5132}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12576" activeTab="1" xr2:uid="{747A5DD0-51CA-448B-B73F-F061414B5132}"/>
   </bookViews>
   <sheets>
     <sheet name="Pump Info" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>mm</t>
   </si>
@@ -45,40 +45,37 @@
     <t>Flow Rate</t>
   </si>
   <si>
-    <t>m3/h</t>
-  </si>
-  <si>
     <t>Head</t>
   </si>
   <si>
-    <t>ft</t>
-  </si>
-  <si>
     <t>Power</t>
   </si>
   <si>
-    <t>HP</t>
-  </si>
-  <si>
     <t>Efficciency</t>
   </si>
   <si>
-    <t>%</t>
-  </si>
-  <si>
     <t>Required NPSH</t>
   </si>
   <si>
+    <t>Impeller Diameter</t>
+  </si>
+  <si>
+    <t>Revolutions</t>
+  </si>
+  <si>
+    <t>rpm</t>
+  </si>
+  <si>
     <t>m</t>
   </si>
   <si>
-    <t>Impeller Diameter</t>
-  </si>
-  <si>
-    <t>Revolutions</t>
-  </si>
-  <si>
-    <t>rpm</t>
+    <t>m3/s</t>
+  </si>
+  <si>
+    <t>kW</t>
+  </si>
+  <si>
+    <t>abs</t>
   </si>
 </sst>
 </file>
@@ -94,12 +91,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -114,13 +117,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -458,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE7C8FC-667A-4C94-BA85-F05C12A2B0F4}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,7 +475,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B1">
         <v>200</v>
@@ -480,16 +486,21 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>1450</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{7A82AECB-1B60-49E9-A47D-4E889A1CE2EF}">
+      <formula1>"m, mm, cm, in., ft"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -498,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A09BD9-3D43-4EFB-99EC-D5A97E368F4A}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,33 +526,33 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -630,6 +641,20 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 E2" xr:uid="{1D41B53A-9ACE-47F0-809D-E22EC1550514}">
+      <formula1>"m, mm, cm, in., ft"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{B3265829-1B50-4355-A077-287E23274983}">
+      <formula1>"%, abs"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{95F2885C-6D5C-4D60-82EC-5C6736F393C7}">
+      <formula1>"W, kW, MW, kcal/h, BTU/h, BTU/s, cal/s, HP, kJ/h, kJ/d"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{8017DB61-7D4B-47D0-9967-4AC7191ED665}">
+      <formula1>"m3/s, ft3/s, cm3/s, m3/h, m3/d, bbl/h, bbl/d, ft3/mim, gal[UK]/h, gal[UK]/s, gal[US]/h, gal[US]/s, L/h, L/min, L/s"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Pumps Excel Data/Sulzer1.xlsx
+++ b/Pumps Excel Data/Sulzer1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27521"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\GitHub\DWSIM_Pump_Curves\Pumps Excel Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530D56A2-43D7-462D-8B7F-4849C16B195E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9B1D04-61EF-43FE-BB82-75C526D8C0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12576" activeTab="1" xr2:uid="{747A5DD0-51CA-448B-B73F-F061414B5132}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{747A5DD0-51CA-448B-B73F-F061414B5132}"/>
   </bookViews>
   <sheets>
     <sheet name="Pump Info" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>mm</t>
   </si>
@@ -69,13 +69,28 @@
     <t>m</t>
   </si>
   <si>
-    <t>m3/s</t>
-  </si>
-  <si>
-    <t>kW</t>
-  </si>
-  <si>
-    <t>abs</t>
+    <t>m3/h</t>
+  </si>
+  <si>
+    <t>ft</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Sulzer Pump Curve</t>
+  </si>
+  <si>
+    <t>Sulzer Pump Curve Test</t>
   </si>
 </sst>
 </file>
@@ -462,15 +477,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE7C8FC-667A-4C94-BA85-F05C12A2B0F4}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -493,6 +507,22 @@
       </c>
       <c r="C2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -509,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A09BD9-3D43-4EFB-99EC-D5A97E368F4A}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -543,16 +573,16 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
